--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ParkSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FDF839-D637-44D8-8D86-4AE7B6919D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25866E-FF3C-41A2-ABFA-3AC500E7DD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>주차 구역 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,14 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국제경영센터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동캠퍼스 학교 앞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,18 +161,6 @@
     <t>https://www.wsu.ac.kr/page/index.jsp?code=campus0804</t>
   </si>
   <si>
-    <t>주차 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주차 구역 당 총 주차가능 대수까지 번호 만들고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +266,74 @@
   </si>
   <si>
     <t>127.453934185306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_area(char)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_area_latitude(double)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_area_longitude(double)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_area_type(char)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_area_campus(char)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_area_count(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_locate(char)-primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park_area_state(boolean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARK_isParking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARK_isParking의 park_Area_count의 총 개수를 가져오면 될듯?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARK_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,12 +364,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -366,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +429,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -659,57 +711,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="26.375" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="17" max="17" width="15.125" customWidth="1"/>
+    <col min="18" max="18" width="18.625" customWidth="1"/>
+    <col min="19" max="19" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" thickBot="1">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
       <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="20.25">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,22 +799,28 @@
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" t="b">
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="20.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -752,13 +834,22 @@
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="20.25">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,35 +863,44 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="20.25">
-      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20.25">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="20.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -812,15 +912,21 @@
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="20.25">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -832,15 +938,15 @@
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="20.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -852,18 +958,18 @@
         <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="20.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -872,38 +978,38 @@
         <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="20.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="20.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -912,68 +1018,78 @@
         <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="20.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20.25">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="20.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="I24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="I25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
